--- a/SchedulingData/dynamic16/pso/scheduling1_9.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling1_9.xlsx
@@ -462,211 +462,211 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>60.7</v>
+        <v>97.84</v>
       </c>
       <c r="E2" t="n">
-        <v>26.62</v>
+        <v>25.856</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>63.08</v>
+        <v>55</v>
       </c>
       <c r="E3" t="n">
-        <v>26.352</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>60.7</v>
+        <v>97.84</v>
       </c>
       <c r="D4" t="n">
-        <v>100.5</v>
+        <v>142.74</v>
       </c>
       <c r="E4" t="n">
-        <v>23.78</v>
+        <v>22.496</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>142.74</v>
       </c>
       <c r="D5" t="n">
-        <v>75.59999999999999</v>
+        <v>204.3</v>
       </c>
       <c r="E5" t="n">
-        <v>25.62</v>
+        <v>17.96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>100.5</v>
+        <v>55</v>
       </c>
       <c r="D6" t="n">
-        <v>168.82</v>
+        <v>119.88</v>
       </c>
       <c r="E6" t="n">
-        <v>19.568</v>
+        <v>22.332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>168.82</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>215.78</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
-        <v>15.512</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>119.88</v>
       </c>
       <c r="D8" t="n">
-        <v>63.96</v>
+        <v>183.58</v>
       </c>
       <c r="E8" t="n">
-        <v>26.784</v>
+        <v>19.092</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>83.59999999999999</v>
+        <v>92.88</v>
       </c>
       <c r="E9" t="n">
-        <v>25.8</v>
+        <v>23.532</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>75.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>143.74</v>
+        <v>82.22</v>
       </c>
       <c r="E10" t="n">
-        <v>20.916</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>63.96</v>
+        <v>92.88</v>
       </c>
       <c r="D11" t="n">
-        <v>128.46</v>
+        <v>148.08</v>
       </c>
       <c r="E11" t="n">
-        <v>23.424</v>
+        <v>19.152</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>215.78</v>
+        <v>148.08</v>
       </c>
       <c r="D12" t="n">
-        <v>273.08</v>
+        <v>190.58</v>
       </c>
       <c r="E12" t="n">
-        <v>12.392</v>
+        <v>16.032</v>
       </c>
     </row>
     <row r="13">
@@ -675,17 +675,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>273.08</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>339.14</v>
+        <v>56.9</v>
       </c>
       <c r="E13" t="n">
-        <v>8.416</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="14">
@@ -694,74 +694,74 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>63.08</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>103.42</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>23.448</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>128.46</v>
+        <v>56.9</v>
       </c>
       <c r="D15" t="n">
-        <v>163.66</v>
+        <v>143.66</v>
       </c>
       <c r="E15" t="n">
-        <v>20.544</v>
+        <v>21.444</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>83.59999999999999</v>
+        <v>183.58</v>
       </c>
       <c r="D16" t="n">
-        <v>158.48</v>
+        <v>236.48</v>
       </c>
       <c r="E16" t="n">
-        <v>21.432</v>
+        <v>14.932</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>339.14</v>
+        <v>82.22</v>
       </c>
       <c r="D17" t="n">
-        <v>397.88</v>
+        <v>160.58</v>
       </c>
       <c r="E17" t="n">
-        <v>5.632</v>
+        <v>22.752</v>
       </c>
     </row>
     <row r="18">
@@ -770,283 +770,283 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>103.42</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>161.2</v>
+        <v>134.28</v>
       </c>
       <c r="E18" t="n">
-        <v>20.28</v>
+        <v>22.832</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>143.74</v>
+        <v>204.3</v>
       </c>
       <c r="D19" t="n">
-        <v>207.34</v>
+        <v>273.36</v>
       </c>
       <c r="E19" t="n">
-        <v>17.676</v>
+        <v>14.164</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>143.66</v>
       </c>
       <c r="D20" t="n">
-        <v>52.22</v>
+        <v>192.18</v>
       </c>
       <c r="E20" t="n">
-        <v>25.968</v>
+        <v>17.232</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>397.88</v>
+        <v>190.58</v>
       </c>
       <c r="D21" t="n">
-        <v>471.66</v>
+        <v>254.54</v>
       </c>
       <c r="E21" t="n">
-        <v>3.344</v>
+        <v>12.236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>158.48</v>
+        <v>192.18</v>
       </c>
       <c r="D22" t="n">
-        <v>249.78</v>
+        <v>260.28</v>
       </c>
       <c r="E22" t="n">
-        <v>18.392</v>
+        <v>13.032</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>471.66</v>
+        <v>254.54</v>
       </c>
       <c r="D23" t="n">
-        <v>541.87</v>
+        <v>293.68</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>9.452</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>541.87</v>
+        <v>236.48</v>
       </c>
       <c r="D24" t="n">
-        <v>592.67</v>
+        <v>279.36</v>
       </c>
       <c r="E24" t="n">
-        <v>25.62</v>
+        <v>11.284</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>163.66</v>
+        <v>279.36</v>
       </c>
       <c r="D25" t="n">
-        <v>221.82</v>
+        <v>336.56</v>
       </c>
       <c r="E25" t="n">
-        <v>17.328</v>
+        <v>8.164</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>249.78</v>
+        <v>336.56</v>
       </c>
       <c r="D26" t="n">
-        <v>315.52</v>
+        <v>386.76</v>
       </c>
       <c r="E26" t="n">
-        <v>14.908</v>
+        <v>3.784</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>161.2</v>
+        <v>260.28</v>
       </c>
       <c r="D27" t="n">
-        <v>234.42</v>
+        <v>305.62</v>
       </c>
       <c r="E27" t="n">
-        <v>16.068</v>
+        <v>10.128</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>207.34</v>
+        <v>134.28</v>
       </c>
       <c r="D28" t="n">
-        <v>239.26</v>
+        <v>197.5</v>
       </c>
       <c r="E28" t="n">
-        <v>15.124</v>
+        <v>18.62</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>234.42</v>
+        <v>273.36</v>
       </c>
       <c r="D29" t="n">
-        <v>272.02</v>
+        <v>328.34</v>
       </c>
       <c r="E29" t="n">
-        <v>12.948</v>
+        <v>9.795999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>52.22</v>
+        <v>197.5</v>
       </c>
       <c r="D30" t="n">
-        <v>107.64</v>
+        <v>257.36</v>
       </c>
       <c r="E30" t="n">
-        <v>22.536</v>
+        <v>15.764</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>239.26</v>
+        <v>328.34</v>
       </c>
       <c r="D31" t="n">
-        <v>291.86</v>
+        <v>362.82</v>
       </c>
       <c r="E31" t="n">
-        <v>11.484</v>
+        <v>6.988</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>107.64</v>
+        <v>160.58</v>
       </c>
       <c r="D32" t="n">
-        <v>155.64</v>
+        <v>215.38</v>
       </c>
       <c r="E32" t="n">
-        <v>18.376</v>
+        <v>19.872</v>
       </c>
     </row>
     <row r="33">
@@ -1055,55 +1055,55 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>221.82</v>
+        <v>362.82</v>
       </c>
       <c r="D33" t="n">
-        <v>289.96</v>
+        <v>422.82</v>
       </c>
       <c r="E33" t="n">
-        <v>14.624</v>
+        <v>3.608</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>155.64</v>
+        <v>422.82</v>
       </c>
       <c r="D34" t="n">
-        <v>209.24</v>
+        <v>452.1</v>
       </c>
       <c r="E34" t="n">
-        <v>14.656</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>315.52</v>
+        <v>452.1</v>
       </c>
       <c r="D35" t="n">
-        <v>390.08</v>
+        <v>526.36</v>
       </c>
       <c r="E35" t="n">
-        <v>12.052</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
@@ -1112,17 +1112,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>291.86</v>
+        <v>386.76</v>
       </c>
       <c r="D36" t="n">
-        <v>364.6</v>
+        <v>436.16</v>
       </c>
       <c r="E36" t="n">
-        <v>7.34</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="37">
@@ -1131,36 +1131,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>364.6</v>
+        <v>436.16</v>
       </c>
       <c r="D37" t="n">
-        <v>420.82</v>
+        <v>512.1900000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>4.348</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>390.08</v>
+        <v>526.36</v>
       </c>
       <c r="D38" t="n">
-        <v>451.74</v>
+        <v>608.0599999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>7.516</v>
+        <v>26.96</v>
       </c>
     </row>
     <row r="39">
@@ -1169,36 +1169,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>420.82</v>
+        <v>512.1900000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>499.52</v>
+        <v>562.99</v>
       </c>
       <c r="E39" t="n">
-        <v>1.048</v>
+        <v>26.62</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>499.52</v>
+        <v>305.62</v>
       </c>
       <c r="D40" t="n">
-        <v>564.42</v>
+        <v>378.64</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>5.916</v>
       </c>
     </row>
     <row r="41">
@@ -1207,112 +1207,112 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>272.02</v>
+        <v>257.36</v>
       </c>
       <c r="D41" t="n">
-        <v>311.48</v>
+        <v>308.98</v>
       </c>
       <c r="E41" t="n">
-        <v>10.132</v>
+        <v>13.212</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>289.96</v>
+        <v>293.68</v>
       </c>
       <c r="D42" t="n">
-        <v>359.74</v>
+        <v>342.12</v>
       </c>
       <c r="E42" t="n">
-        <v>10.256</v>
+        <v>6.748</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>359.74</v>
+        <v>308.98</v>
       </c>
       <c r="D43" t="n">
-        <v>416.32</v>
+        <v>357.58</v>
       </c>
       <c r="E43" t="n">
-        <v>6.728</v>
+        <v>9.972</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>209.24</v>
+        <v>562.99</v>
       </c>
       <c r="D44" t="n">
-        <v>253.54</v>
+        <v>654.59</v>
       </c>
       <c r="E44" t="n">
-        <v>12.336</v>
+        <v>23.54</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>564.42</v>
+        <v>215.38</v>
       </c>
       <c r="D45" t="n">
-        <v>613.54</v>
+        <v>278.44</v>
       </c>
       <c r="E45" t="n">
-        <v>25.788</v>
+        <v>16.656</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>253.54</v>
+        <v>278.44</v>
       </c>
       <c r="D46" t="n">
-        <v>327.3</v>
+        <v>346.58</v>
       </c>
       <c r="E46" t="n">
-        <v>8.539999999999999</v>
+        <v>11.952</v>
       </c>
     </row>
     <row r="47">
@@ -1321,212 +1321,212 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>451.74</v>
+        <v>346.58</v>
       </c>
       <c r="D47" t="n">
-        <v>519.52</v>
+        <v>405.98</v>
       </c>
       <c r="E47" t="n">
-        <v>3.868</v>
+        <v>9.112</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>592.67</v>
+        <v>405.98</v>
       </c>
       <c r="D48" t="n">
-        <v>669.27</v>
+        <v>463.56</v>
       </c>
       <c r="E48" t="n">
-        <v>22.54</v>
+        <v>5.464</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>519.52</v>
+        <v>342.12</v>
       </c>
       <c r="D49" t="n">
-        <v>568.22</v>
+        <v>377.82</v>
       </c>
       <c r="E49" t="n">
-        <v>0.628</v>
+        <v>4.308</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>568.22</v>
+        <v>377.82</v>
       </c>
       <c r="D50" t="n">
-        <v>658.46</v>
+        <v>449.72</v>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>1.228</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>311.48</v>
+        <v>449.72</v>
       </c>
       <c r="D51" t="n">
-        <v>385.44</v>
+        <v>543.86</v>
       </c>
       <c r="E51" t="n">
-        <v>6.336</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>327.3</v>
+        <v>378.64</v>
       </c>
       <c r="D52" t="n">
-        <v>385.6</v>
+        <v>446.64</v>
       </c>
       <c r="E52" t="n">
-        <v>4.34</v>
+        <v>1.716</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>385.6</v>
+        <v>446.64</v>
       </c>
       <c r="D53" t="n">
-        <v>459.4</v>
+        <v>529.8099999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>1.04</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>459.4</v>
+        <v>357.58</v>
       </c>
       <c r="D54" t="n">
-        <v>529.3200000000001</v>
+        <v>403.7</v>
       </c>
       <c r="E54" t="n">
-        <v>30</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>529.3200000000001</v>
+        <v>654.59</v>
       </c>
       <c r="D55" t="n">
-        <v>580.12</v>
+        <v>697.09</v>
       </c>
       <c r="E55" t="n">
-        <v>26.62</v>
+        <v>20.42</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>385.44</v>
+        <v>543.86</v>
       </c>
       <c r="D56" t="n">
-        <v>449.64</v>
+        <v>578.96</v>
       </c>
       <c r="E56" t="n">
-        <v>3.036</v>
+        <v>27.68</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>416.32</v>
+        <v>463.56</v>
       </c>
       <c r="D57" t="n">
-        <v>457.82</v>
+        <v>524.42</v>
       </c>
       <c r="E57" t="n">
-        <v>4.208</v>
+        <v>1.488</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1534,10 +1534,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>449.64</v>
+        <v>524.42</v>
       </c>
       <c r="D58" t="n">
-        <v>525.5700000000001</v>
+        <v>598.34</v>
       </c>
       <c r="E58" t="n">
         <v>30</v>
@@ -1549,55 +1549,55 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>525.5700000000001</v>
+        <v>403.7</v>
       </c>
       <c r="D59" t="n">
-        <v>583.47</v>
+        <v>448.16</v>
       </c>
       <c r="E59" t="n">
-        <v>26.88</v>
+        <v>4.164</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>583.47</v>
+        <v>608.0599999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>634.49</v>
+        <v>663.48</v>
       </c>
       <c r="E60" t="n">
-        <v>23.888</v>
+        <v>23.528</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>580.12</v>
+        <v>448.16</v>
       </c>
       <c r="D61" t="n">
-        <v>636.42</v>
+        <v>511.56</v>
       </c>
       <c r="E61" t="n">
-        <v>22.12</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="62">
@@ -1606,36 +1606,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>634.49</v>
+        <v>511.56</v>
       </c>
       <c r="D62" t="n">
-        <v>691.29</v>
+        <v>597.27</v>
       </c>
       <c r="E62" t="n">
-        <v>20.808</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>457.82</v>
+        <v>597.27</v>
       </c>
       <c r="D63" t="n">
-        <v>507.1</v>
+        <v>658.91</v>
       </c>
       <c r="E63" t="n">
-        <v>1.4</v>
+        <v>26.516</v>
       </c>
     </row>
     <row r="64">
@@ -1644,17 +1644,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>507.1</v>
+        <v>663.48</v>
       </c>
       <c r="D64" t="n">
-        <v>586</v>
+        <v>720.58</v>
       </c>
       <c r="E64" t="n">
-        <v>30</v>
+        <v>19.928</v>
       </c>
     </row>
     <row r="65">
@@ -1663,41 +1663,41 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>636.42</v>
+        <v>578.96</v>
       </c>
       <c r="D65" t="n">
-        <v>716.62</v>
+        <v>615.5599999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>19.68</v>
+        <v>25.16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>613.54</v>
+        <v>598.34</v>
       </c>
       <c r="D66" t="n">
-        <v>700.24</v>
+        <v>645.26</v>
       </c>
       <c r="E66" t="n">
-        <v>22.188</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1705,13 +1705,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>669.27</v>
+        <v>658.91</v>
       </c>
       <c r="D67" t="n">
-        <v>715.3099999999999</v>
+        <v>724.55</v>
       </c>
       <c r="E67" t="n">
-        <v>20.076</v>
+        <v>24.052</v>
       </c>
     </row>
   </sheetData>
